--- a/results/birth/SEED_0/result.xlsx
+++ b/results/birth/SEED_0/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2500.900709323883</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>464.5285916582743</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>464.5202096048991</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>474.1263556734721</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>475.0556297938029</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>490.023480052948</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>506.0659191258748</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>554.7889818000793</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>733.474437198639</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2543.234656417053</v>
       </c>
+      <c r="AK5" t="n">
+        <v>551.9738261402196</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>551.4324129430554</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>565.4577818578257</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>566.0489742158366</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>580.5131890350316</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>606.0589285127953</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>686.7798628531531</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>930.3470376635079</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -974,7 +1074,7 @@
         <v>0.9992302438792815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989111252314341</v>
+        <v>0.9989111252314343</v>
       </c>
       <c r="F6" t="n">
         <v>0.9988688072246045</v>
@@ -983,7 +1083,7 @@
         <v>0.9988451230993172</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9987920949474679</v>
+        <v>0.9987920949474681</v>
       </c>
       <c r="I6" t="n">
         <v>0.9987751373673823</v>
@@ -998,7 +1098,7 @@
         <v>0.9958954964706972</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9989040231729234</v>
+        <v>0.9989040231729235</v>
       </c>
       <c r="N6" t="n">
         <v>0.9988968911819907</v>
@@ -1028,16 +1128,16 @@
         <v>0.9982294575269341</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9977896485165668</v>
+        <v>0.997789648516567</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9973482583773956</v>
+        <v>0.9973482583773954</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.996696243013373</v>
+        <v>0.9966962430133728</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.9949619232629754</v>
+        <v>0.9949619232629752</v>
       </c>
       <c r="AA6" t="n">
         <v>0.9923676831664968</v>
@@ -1049,7 +1149,7 @@
         <v>0.9985531375858528</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9980943883705266</v>
+        <v>0.9980943883705263</v>
       </c>
       <c r="AE6" t="n">
         <v>0.9975610153140687</v>
@@ -1058,16 +1158,40 @@
         <v>0.9969144942603778</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9961529747942365</v>
+        <v>0.9961529747942367</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9936150994322045</v>
+        <v>0.9936150994322043</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9907446315755433</v>
+        <v>0.990744631575543</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9749213482112975</v>
+        <v>0.9749213482112976</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9989104309905982</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.998918816254543</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9988676617913644</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.998864112100734</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9988077130000669</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9986836832954509</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9982170832273143</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9968320536882714</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>2184.144503771464</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>349.249486395518</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>351.5619760195414</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>361.363510684967</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>368.4301939837138</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>384.1244778251648</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>444.8798977470398</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>448.0285343138377</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>752.6198354943593</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2245.639974971532</v>
       </c>
+      <c r="AK8" t="n">
+        <v>462.5642405829059</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>464.0296242579</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>479.1689705109673</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>480.407570729659</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>496.3765986430273</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>560.6135846298008</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>568.1265553701171</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>947.4248617888948</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1314,19 +1486,19 @@
         <v>0.9992035397647951</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9991796181044744</v>
+        <v>0.9991796181044742</v>
       </c>
       <c r="H9" t="n">
         <v>0.9991519577419944</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9991204195406039</v>
+        <v>0.9991204195406042</v>
       </c>
       <c r="J9" t="n">
         <v>0.9990213406475281</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9988829294745944</v>
+        <v>0.9988829294745943</v>
       </c>
       <c r="L9" t="n">
         <v>0.9977258669366492</v>
@@ -1344,16 +1516,16 @@
         <v>0.9991555269975557</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9991251848991316</v>
+        <v>0.9991251848991318</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9990541800777621</v>
+        <v>0.9990541800777619</v>
       </c>
       <c r="S9" t="n">
         <v>0.9989121492781408</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9977617964275572</v>
+        <v>0.9977617964275575</v>
       </c>
       <c r="U9" t="n">
         <v>0.9990337166331755</v>
@@ -1365,16 +1537,16 @@
         <v>0.9984254759414108</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9980127434778094</v>
+        <v>0.9980127434778097</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9975148706373512</v>
+        <v>0.9975148706373514</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9958597095961877</v>
+        <v>0.9958597095961873</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.9935959050757833</v>
+        <v>0.9935959050757831</v>
       </c>
       <c r="AB9" t="n">
         <v>0.9813841627421238</v>
@@ -1383,7 +1555,7 @@
         <v>0.9990093806687049</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.9987102635982993</v>
+        <v>0.9987102635982991</v>
       </c>
       <c r="AE9" t="n">
         <v>0.9983402083599848</v>
@@ -1392,16 +1564,40 @@
         <v>0.9978937024007585</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.9973613306490811</v>
+        <v>0.9973613306490809</v>
       </c>
       <c r="AH9" t="n">
         <v>0.9956286276819704</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9932908308980676</v>
+        <v>0.993290830898068</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.9800394389704356</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9992294724180268</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9992266766853731</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9991824454938244</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991704617258532</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991241512545038</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9988486481585858</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9987983810924809</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9966433314045082</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>1864.732319876353</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>296.7274908638</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>303.1996876716614</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>310.2844161287944</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>317.0759113756816</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>337.7764542071025</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>371.2026498603821</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>436.4089192644755</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>593.4768737220764</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>1956.19119533564</v>
       </c>
+      <c r="AK11" t="n">
+        <v>405.903667253727</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>408.9247938565332</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>417.7221087858396</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>421.4585049744676</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>439.3226574278676</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>503.1255501653562</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>575.3323476174872</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>790.8373040170154</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1660,19 +1904,19 @@
         <v>0.9988441499881572</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9985447410478931</v>
+        <v>0.9985447410478934</v>
       </c>
       <c r="L12" t="n">
         <v>0.9961325429660882</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9993511847144223</v>
+        <v>0.9993511847144225</v>
       </c>
       <c r="N12" t="n">
         <v>0.9993344341569789</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9993047332864233</v>
+        <v>0.9993047332864234</v>
       </c>
       <c r="P12" t="n">
         <v>0.9992723767874451</v>
@@ -1681,7 +1925,7 @@
         <v>0.9992315695740389</v>
       </c>
       <c r="R12" t="n">
-        <v>0.999134209029478</v>
+        <v>0.9991342090294778</v>
       </c>
       <c r="S12" t="n">
         <v>0.9989379760511501</v>
@@ -1702,19 +1946,19 @@
         <v>0.9981673301380626</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9976713196804032</v>
+        <v>0.9976713196804031</v>
       </c>
       <c r="Z12" t="n">
         <v>0.9960244714214265</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9939507021259985</v>
+        <v>0.9939507021259987</v>
       </c>
       <c r="AB12" t="n">
         <v>0.9861987818494288</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9991050522293008</v>
+        <v>0.9991050522293006</v>
       </c>
       <c r="AD12" t="n">
         <v>0.9987719990807002</v>
@@ -1723,29 +1967,54 @@
         <v>0.9983499356173842</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.9978331453066666</v>
+        <v>0.9978331453066669</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9972134330263319</v>
+        <v>0.9972134330263317</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9952584942761672</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.9929957716894121</v>
+        <v>0.992995771689412</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.9852757564012784</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9993442378697978</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9993344192525572</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9993054996314025</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9992929881248205</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9992317505720024</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9989939636056053</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9986823385804739</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9975090849042869</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
